--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
   <si>
     <t>Serie</t>
   </si>
@@ -476,6 +476,72 @@
   </si>
   <si>
     <t>04-08-2021</t>
+  </si>
+  <si>
+    <t>05-08-2021</t>
+  </si>
+  <si>
+    <t>06-08-2021</t>
+  </si>
+  <si>
+    <t>09-08-2021</t>
+  </si>
+  <si>
+    <t>10-08-2021</t>
+  </si>
+  <si>
+    <t>11-08-2021</t>
+  </si>
+  <si>
+    <t>12-08-2021</t>
+  </si>
+  <si>
+    <t>13-08-2021</t>
+  </si>
+  <si>
+    <t>16-08-2021</t>
+  </si>
+  <si>
+    <t>17-08-2021</t>
+  </si>
+  <si>
+    <t>18-08-2021</t>
+  </si>
+  <si>
+    <t>19-08-2021</t>
+  </si>
+  <si>
+    <t>20-08-2021</t>
+  </si>
+  <si>
+    <t>23-08-2021</t>
+  </si>
+  <si>
+    <t>24-08-2021</t>
+  </si>
+  <si>
+    <t>25-08-2021</t>
+  </si>
+  <si>
+    <t>26-08-2021</t>
+  </si>
+  <si>
+    <t>27-08-2021</t>
+  </si>
+  <si>
+    <t>30-08-2021</t>
+  </si>
+  <si>
+    <t>31-08-2021</t>
+  </si>
+  <si>
+    <t>01-09-2021</t>
+  </si>
+  <si>
+    <t>02-09-2021</t>
+  </si>
+  <si>
+    <t>03-09-2021</t>
   </si>
 </sst>
 </file>
@@ -833,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3819,6 +3885,446 @@
         <v>1542</v>
       </c>
     </row>
+    <row r="150" spans="1:6">
+      <c r="A150" t="s">
+        <v>154</v>
+      </c>
+      <c r="B150">
+        <v>-9609</v>
+      </c>
+      <c r="C150">
+        <v>3376</v>
+      </c>
+      <c r="D150">
+        <v>913</v>
+      </c>
+      <c r="E150">
+        <v>804</v>
+      </c>
+      <c r="F150">
+        <v>1659</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" t="s">
+        <v>155</v>
+      </c>
+      <c r="B151">
+        <v>-9779</v>
+      </c>
+      <c r="C151">
+        <v>3058</v>
+      </c>
+      <c r="D151">
+        <v>848</v>
+      </c>
+      <c r="E151">
+        <v>1009</v>
+      </c>
+      <c r="F151">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" t="s">
+        <v>156</v>
+      </c>
+      <c r="B152">
+        <v>-9665</v>
+      </c>
+      <c r="C152">
+        <v>3031</v>
+      </c>
+      <c r="D152">
+        <v>929</v>
+      </c>
+      <c r="E152">
+        <v>847</v>
+      </c>
+      <c r="F152">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" t="s">
+        <v>157</v>
+      </c>
+      <c r="B153">
+        <v>-9828</v>
+      </c>
+      <c r="C153">
+        <v>3500</v>
+      </c>
+      <c r="D153">
+        <v>908</v>
+      </c>
+      <c r="E153">
+        <v>1015</v>
+      </c>
+      <c r="F153">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" t="s">
+        <v>158</v>
+      </c>
+      <c r="B154">
+        <v>-9995</v>
+      </c>
+      <c r="C154">
+        <v>3836</v>
+      </c>
+      <c r="D154">
+        <v>1005</v>
+      </c>
+      <c r="E154">
+        <v>1151</v>
+      </c>
+      <c r="F154">
+        <v>1679</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" t="s">
+        <v>159</v>
+      </c>
+      <c r="B155">
+        <v>-9946</v>
+      </c>
+      <c r="C155">
+        <v>2633</v>
+      </c>
+      <c r="D155">
+        <v>741</v>
+      </c>
+      <c r="E155">
+        <v>672</v>
+      </c>
+      <c r="F155">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" t="s">
+        <v>160</v>
+      </c>
+      <c r="B156">
+        <v>-9919</v>
+      </c>
+      <c r="C156">
+        <v>3171</v>
+      </c>
+      <c r="D156">
+        <v>981</v>
+      </c>
+      <c r="E156">
+        <v>950</v>
+      </c>
+      <c r="F156">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" t="s">
+        <v>161</v>
+      </c>
+      <c r="B157">
+        <v>-10016</v>
+      </c>
+      <c r="C157">
+        <v>3333</v>
+      </c>
+      <c r="D157">
+        <v>878</v>
+      </c>
+      <c r="E157">
+        <v>960</v>
+      </c>
+      <c r="F157">
+        <v>1495</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" t="s">
+        <v>162</v>
+      </c>
+      <c r="B158">
+        <v>-9864</v>
+      </c>
+      <c r="C158">
+        <v>3320</v>
+      </c>
+      <c r="D158">
+        <v>1051</v>
+      </c>
+      <c r="E158">
+        <v>883</v>
+      </c>
+      <c r="F158">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" t="s">
+        <v>163</v>
+      </c>
+      <c r="B159">
+        <v>-9950</v>
+      </c>
+      <c r="C159">
+        <v>3242</v>
+      </c>
+      <c r="D159">
+        <v>805</v>
+      </c>
+      <c r="E159">
+        <v>881</v>
+      </c>
+      <c r="F159">
+        <v>1556</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" t="s">
+        <v>164</v>
+      </c>
+      <c r="B160">
+        <v>-9947</v>
+      </c>
+      <c r="C160">
+        <v>3066</v>
+      </c>
+      <c r="D160">
+        <v>845</v>
+      </c>
+      <c r="E160">
+        <v>837</v>
+      </c>
+      <c r="F160">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" t="s">
+        <v>165</v>
+      </c>
+      <c r="B161">
+        <v>-9966</v>
+      </c>
+      <c r="C161">
+        <v>2595</v>
+      </c>
+      <c r="D161">
+        <v>801</v>
+      </c>
+      <c r="E161">
+        <v>804</v>
+      </c>
+      <c r="F161">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" t="s">
+        <v>166</v>
+      </c>
+      <c r="B162">
+        <v>-10085</v>
+      </c>
+      <c r="C162">
+        <v>2351</v>
+      </c>
+      <c r="D162">
+        <v>677</v>
+      </c>
+      <c r="E162">
+        <v>783</v>
+      </c>
+      <c r="F162">
+        <v>891</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163">
+        <v>-10192</v>
+      </c>
+      <c r="C163">
+        <v>2902</v>
+      </c>
+      <c r="D163">
+        <v>691</v>
+      </c>
+      <c r="E163">
+        <v>795</v>
+      </c>
+      <c r="F163">
+        <v>1416</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" t="s">
+        <v>168</v>
+      </c>
+      <c r="B164">
+        <v>-9763</v>
+      </c>
+      <c r="C164">
+        <v>3645</v>
+      </c>
+      <c r="D164">
+        <v>1369</v>
+      </c>
+      <c r="E164">
+        <v>930</v>
+      </c>
+      <c r="F164">
+        <v>1346</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" t="s">
+        <v>169</v>
+      </c>
+      <c r="B165">
+        <v>-9707</v>
+      </c>
+      <c r="C165">
+        <v>2887</v>
+      </c>
+      <c r="D165">
+        <v>948</v>
+      </c>
+      <c r="E165">
+        <v>885</v>
+      </c>
+      <c r="F165">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" t="s">
+        <v>170</v>
+      </c>
+      <c r="B166">
+        <v>-9863</v>
+      </c>
+      <c r="C166">
+        <v>2684</v>
+      </c>
+      <c r="D166">
+        <v>724</v>
+      </c>
+      <c r="E166">
+        <v>868</v>
+      </c>
+      <c r="F166">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" t="s">
+        <v>171</v>
+      </c>
+      <c r="B167">
+        <v>-10023</v>
+      </c>
+      <c r="C167">
+        <v>2950</v>
+      </c>
+      <c r="D167">
+        <v>830</v>
+      </c>
+      <c r="E167">
+        <v>976</v>
+      </c>
+      <c r="F167">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" t="s">
+        <v>172</v>
+      </c>
+      <c r="B168">
+        <v>-10230</v>
+      </c>
+      <c r="C168">
+        <v>3649</v>
+      </c>
+      <c r="D168">
+        <v>890</v>
+      </c>
+      <c r="E168">
+        <v>1113</v>
+      </c>
+      <c r="F168">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" t="s">
+        <v>173</v>
+      </c>
+      <c r="B169">
+        <v>-10317</v>
+      </c>
+      <c r="C169">
+        <v>4495</v>
+      </c>
+      <c r="D169">
+        <v>1092</v>
+      </c>
+      <c r="E169">
+        <v>1211</v>
+      </c>
+      <c r="F169">
+        <v>2192</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" t="s">
+        <v>174</v>
+      </c>
+      <c r="B170">
+        <v>-10745</v>
+      </c>
+      <c r="C170">
+        <v>3637</v>
+      </c>
+      <c r="D170">
+        <v>755</v>
+      </c>
+      <c r="E170">
+        <v>1168</v>
+      </c>
+      <c r="F170">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" t="s">
+        <v>175</v>
+      </c>
+      <c r="B171">
+        <v>-11021</v>
+      </c>
+      <c r="C171">
+        <v>2986</v>
+      </c>
+      <c r="D171">
+        <v>775</v>
+      </c>
+      <c r="E171">
+        <v>1050</v>
+      </c>
+      <c r="F171">
+        <v>1161</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>Serie</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>03-09-2021</t>
+  </si>
+  <si>
+    <t>06-09-2021</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:F172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4325,6 +4328,26 @@
         <v>1161</v>
       </c>
     </row>
+    <row r="172" spans="1:6">
+      <c r="A172" t="s">
+        <v>176</v>
+      </c>
+      <c r="B172">
+        <v>-10991</v>
+      </c>
+      <c r="C172">
+        <v>1758</v>
+      </c>
+      <c r="D172">
+        <v>493</v>
+      </c>
+      <c r="E172">
+        <v>455</v>
+      </c>
+      <c r="F172">
+        <v>810</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
   <si>
     <t>Serie</t>
   </si>
@@ -545,6 +545,9 @@
   </si>
   <si>
     <t>06-09-2021</t>
+  </si>
+  <si>
+    <t>07-09-2021</t>
   </si>
 </sst>
 </file>
@@ -902,7 +905,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F172"/>
+  <dimension ref="A1:F173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4348,6 +4351,26 @@
         <v>810</v>
       </c>
     </row>
+    <row r="173" spans="1:6">
+      <c r="A173" t="s">
+        <v>177</v>
+      </c>
+      <c r="B173">
+        <v>-10999</v>
+      </c>
+      <c r="C173">
+        <v>3620</v>
+      </c>
+      <c r="D173">
+        <v>848</v>
+      </c>
+      <c r="E173">
+        <v>816</v>
+      </c>
+      <c r="F173">
+        <v>1955</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>Serie</t>
   </si>
@@ -548,6 +548,24 @@
   </si>
   <si>
     <t>07-09-2021</t>
+  </si>
+  <si>
+    <t>08-09-2021</t>
+  </si>
+  <si>
+    <t>09-09-2021</t>
+  </si>
+  <si>
+    <t>10-09-2021</t>
+  </si>
+  <si>
+    <t>13-09-2021</t>
+  </si>
+  <si>
+    <t>14-09-2021</t>
+  </si>
+  <si>
+    <t>15-09-2021</t>
   </si>
 </sst>
 </file>
@@ -905,7 +923,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F173"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4371,6 +4389,126 @@
         <v>1955</v>
       </c>
     </row>
+    <row r="174" spans="1:6">
+      <c r="A174" t="s">
+        <v>178</v>
+      </c>
+      <c r="B174">
+        <v>-10806</v>
+      </c>
+      <c r="C174">
+        <v>3020</v>
+      </c>
+      <c r="D174">
+        <v>958</v>
+      </c>
+      <c r="E174">
+        <v>750</v>
+      </c>
+      <c r="F174">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" t="s">
+        <v>179</v>
+      </c>
+      <c r="B175">
+        <v>-10807</v>
+      </c>
+      <c r="C175">
+        <v>3044</v>
+      </c>
+      <c r="D175">
+        <v>895</v>
+      </c>
+      <c r="E175">
+        <v>861</v>
+      </c>
+      <c r="F175">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" t="s">
+        <v>180</v>
+      </c>
+      <c r="B176">
+        <v>-10850</v>
+      </c>
+      <c r="C176">
+        <v>2851</v>
+      </c>
+      <c r="D176">
+        <v>825</v>
+      </c>
+      <c r="E176">
+        <v>848</v>
+      </c>
+      <c r="F176">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" t="s">
+        <v>181</v>
+      </c>
+      <c r="B177">
+        <v>-11127</v>
+      </c>
+      <c r="C177">
+        <v>2788</v>
+      </c>
+      <c r="D177">
+        <v>748</v>
+      </c>
+      <c r="E177">
+        <v>1003</v>
+      </c>
+      <c r="F177">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" t="s">
+        <v>182</v>
+      </c>
+      <c r="B178">
+        <v>-11105</v>
+      </c>
+      <c r="C178">
+        <v>3796</v>
+      </c>
+      <c r="D178">
+        <v>978</v>
+      </c>
+      <c r="E178">
+        <v>941</v>
+      </c>
+      <c r="F178">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" t="s">
+        <v>183</v>
+      </c>
+      <c r="B179">
+        <v>-11103</v>
+      </c>
+      <c r="C179">
+        <v>4092</v>
+      </c>
+      <c r="D179">
+        <v>964</v>
+      </c>
+      <c r="E179">
+        <v>957</v>
+      </c>
+      <c r="F179">
+        <v>2170</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
   <si>
     <t>Serie</t>
   </si>
@@ -566,6 +566,9 @@
   </si>
   <si>
     <t>15-09-2021</t>
+  </si>
+  <si>
+    <t>16-09-2021</t>
   </si>
 </sst>
 </file>
@@ -923,7 +926,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F180"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4509,6 +4512,26 @@
         <v>2170</v>
       </c>
     </row>
+    <row r="180" spans="1:6">
+      <c r="A180" t="s">
+        <v>184</v>
+      </c>
+      <c r="B180">
+        <v>-11239</v>
+      </c>
+      <c r="C180">
+        <v>2493</v>
+      </c>
+      <c r="D180">
+        <v>631</v>
+      </c>
+      <c r="E180">
+        <v>743</v>
+      </c>
+      <c r="F180">
+        <v>1119</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>Serie</t>
   </si>
@@ -569,6 +569,33 @@
   </si>
   <si>
     <t>16-09-2021</t>
+  </si>
+  <si>
+    <t>20-09-2021</t>
+  </si>
+  <si>
+    <t>21-09-2021</t>
+  </si>
+  <si>
+    <t>22-09-2021</t>
+  </si>
+  <si>
+    <t>23-09-2021</t>
+  </si>
+  <si>
+    <t>24-09-2021</t>
+  </si>
+  <si>
+    <t>27-09-2021</t>
+  </si>
+  <si>
+    <t>28-09-2021</t>
+  </si>
+  <si>
+    <t>29-09-2021</t>
+  </si>
+  <si>
+    <t>30-09-2021</t>
   </si>
 </sst>
 </file>
@@ -926,7 +953,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F180"/>
+  <dimension ref="A1:F189"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4532,6 +4559,186 @@
         <v>1119</v>
       </c>
     </row>
+    <row r="181" spans="1:6">
+      <c r="A181" t="s">
+        <v>185</v>
+      </c>
+      <c r="B181">
+        <v>-11098</v>
+      </c>
+      <c r="C181">
+        <v>2951</v>
+      </c>
+      <c r="D181">
+        <v>918</v>
+      </c>
+      <c r="E181">
+        <v>762</v>
+      </c>
+      <c r="F181">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6">
+      <c r="A182" t="s">
+        <v>186</v>
+      </c>
+      <c r="B182">
+        <v>-10845</v>
+      </c>
+      <c r="C182">
+        <v>3292</v>
+      </c>
+      <c r="D182">
+        <v>1085</v>
+      </c>
+      <c r="E182">
+        <v>827</v>
+      </c>
+      <c r="F182">
+        <v>1380</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6">
+      <c r="A183" t="s">
+        <v>187</v>
+      </c>
+      <c r="B183">
+        <v>-10932</v>
+      </c>
+      <c r="C183">
+        <v>3769</v>
+      </c>
+      <c r="D183">
+        <v>1163</v>
+      </c>
+      <c r="E183">
+        <v>1239</v>
+      </c>
+      <c r="F183">
+        <v>1367</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6">
+      <c r="A184" t="s">
+        <v>188</v>
+      </c>
+      <c r="B184">
+        <v>-10737</v>
+      </c>
+      <c r="C184">
+        <v>3435</v>
+      </c>
+      <c r="D184">
+        <v>983</v>
+      </c>
+      <c r="E184">
+        <v>779</v>
+      </c>
+      <c r="F184">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6">
+      <c r="A185" t="s">
+        <v>189</v>
+      </c>
+      <c r="B185">
+        <v>-11108</v>
+      </c>
+      <c r="C185">
+        <v>3289</v>
+      </c>
+      <c r="D185">
+        <v>863</v>
+      </c>
+      <c r="E185">
+        <v>1229</v>
+      </c>
+      <c r="F185">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6">
+      <c r="A186" t="s">
+        <v>190</v>
+      </c>
+      <c r="B186">
+        <v>-11087</v>
+      </c>
+      <c r="C186">
+        <v>3038</v>
+      </c>
+      <c r="D186">
+        <v>993</v>
+      </c>
+      <c r="E186">
+        <v>962</v>
+      </c>
+      <c r="F186">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6">
+      <c r="A187" t="s">
+        <v>191</v>
+      </c>
+      <c r="B187">
+        <v>-10586</v>
+      </c>
+      <c r="C187">
+        <v>3163</v>
+      </c>
+      <c r="D187">
+        <v>1265</v>
+      </c>
+      <c r="E187">
+        <v>753</v>
+      </c>
+      <c r="F187">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6">
+      <c r="A188" t="s">
+        <v>192</v>
+      </c>
+      <c r="B188">
+        <v>-10505</v>
+      </c>
+      <c r="C188">
+        <v>3276</v>
+      </c>
+      <c r="D188">
+        <v>912</v>
+      </c>
+      <c r="E188">
+        <v>830</v>
+      </c>
+      <c r="F188">
+        <v>1534</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6">
+      <c r="A189" t="s">
+        <v>193</v>
+      </c>
+      <c r="B189">
+        <v>-10187</v>
+      </c>
+      <c r="C189">
+        <v>3750</v>
+      </c>
+      <c r="D189">
+        <v>1366</v>
+      </c>
+      <c r="E189">
+        <v>1046</v>
+      </c>
+      <c r="F189">
+        <v>1338</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
   <si>
     <t>Serie</t>
   </si>
@@ -596,6 +596,9 @@
   </si>
   <si>
     <t>30-09-2021</t>
+  </si>
+  <si>
+    <t>01-10-2021</t>
   </si>
 </sst>
 </file>
@@ -953,7 +956,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F189"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4739,6 +4742,26 @@
         <v>1338</v>
       </c>
     </row>
+    <row r="190" spans="1:6">
+      <c r="A190" t="s">
+        <v>194</v>
+      </c>
+      <c r="B190">
+        <v>-10029</v>
+      </c>
+      <c r="C190">
+        <v>3295</v>
+      </c>
+      <c r="D190">
+        <v>1031</v>
+      </c>
+      <c r="E190">
+        <v>952</v>
+      </c>
+      <c r="F190">
+        <v>1312</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>Serie</t>
   </si>
@@ -599,6 +599,15 @@
   </si>
   <si>
     <t>01-10-2021</t>
+  </si>
+  <si>
+    <t>04-10-2021</t>
+  </si>
+  <si>
+    <t>05-10-2021</t>
+  </si>
+  <si>
+    <t>06-10-2021</t>
   </si>
 </sst>
 </file>
@@ -956,7 +965,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F193"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4762,6 +4771,66 @@
         <v>1312</v>
       </c>
     </row>
+    <row r="191" spans="1:6">
+      <c r="A191" t="s">
+        <v>195</v>
+      </c>
+      <c r="B191">
+        <v>-10111</v>
+      </c>
+      <c r="C191">
+        <v>2595</v>
+      </c>
+      <c r="D191">
+        <v>673</v>
+      </c>
+      <c r="E191">
+        <v>742</v>
+      </c>
+      <c r="F191">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6">
+      <c r="A192" t="s">
+        <v>196</v>
+      </c>
+      <c r="B192">
+        <v>-9946</v>
+      </c>
+      <c r="C192">
+        <v>3743</v>
+      </c>
+      <c r="D192">
+        <v>1094</v>
+      </c>
+      <c r="E192">
+        <v>974</v>
+      </c>
+      <c r="F192">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6">
+      <c r="A193" t="s">
+        <v>197</v>
+      </c>
+      <c r="B193">
+        <v>-10060</v>
+      </c>
+      <c r="C193">
+        <v>3321</v>
+      </c>
+      <c r="D193">
+        <v>973</v>
+      </c>
+      <c r="E193">
+        <v>1075</v>
+      </c>
+      <c r="F193">
+        <v>1273</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
   <si>
     <t>Serie</t>
   </si>
@@ -608,6 +608,9 @@
   </si>
   <si>
     <t>06-10-2021</t>
+  </si>
+  <si>
+    <t>07-10-2021</t>
   </si>
 </sst>
 </file>
@@ -965,7 +968,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F193"/>
+  <dimension ref="A1:F194"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4831,6 +4834,26 @@
         <v>1273</v>
       </c>
     </row>
+    <row r="194" spans="1:6">
+      <c r="A194" t="s">
+        <v>198</v>
+      </c>
+      <c r="B194">
+        <v>-9933</v>
+      </c>
+      <c r="C194">
+        <v>3871</v>
+      </c>
+      <c r="D194">
+        <v>1370</v>
+      </c>
+      <c r="E194">
+        <v>1242</v>
+      </c>
+      <c r="F194">
+        <v>1259</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
   <si>
     <t>Serie</t>
   </si>
@@ -611,6 +611,48 @@
   </si>
   <si>
     <t>07-10-2021</t>
+  </si>
+  <si>
+    <t>08-10-2021</t>
+  </si>
+  <si>
+    <t>12-10-2021</t>
+  </si>
+  <si>
+    <t>13-10-2021</t>
+  </si>
+  <si>
+    <t>14-10-2021</t>
+  </si>
+  <si>
+    <t>15-10-2021</t>
+  </si>
+  <si>
+    <t>18-10-2021</t>
+  </si>
+  <si>
+    <t>19-10-2021</t>
+  </si>
+  <si>
+    <t>20-10-2021</t>
+  </si>
+  <si>
+    <t>21-10-2021</t>
+  </si>
+  <si>
+    <t>22-10-2021</t>
+  </si>
+  <si>
+    <t>25-10-2021</t>
+  </si>
+  <si>
+    <t>26-10-2021</t>
+  </si>
+  <si>
+    <t>27-10-2021</t>
+  </si>
+  <si>
+    <t>28-10-2021</t>
   </si>
 </sst>
 </file>
@@ -968,7 +1010,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F194"/>
+  <dimension ref="A1:F208"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4854,6 +4896,286 @@
         <v>1259</v>
       </c>
     </row>
+    <row r="195" spans="1:6">
+      <c r="A195" t="s">
+        <v>199</v>
+      </c>
+      <c r="B195">
+        <v>-9926</v>
+      </c>
+      <c r="C195">
+        <v>2832</v>
+      </c>
+      <c r="D195">
+        <v>946</v>
+      </c>
+      <c r="E195">
+        <v>929</v>
+      </c>
+      <c r="F195">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6">
+      <c r="A196" t="s">
+        <v>200</v>
+      </c>
+      <c r="B196">
+        <v>-9955</v>
+      </c>
+      <c r="C196">
+        <v>2971</v>
+      </c>
+      <c r="D196">
+        <v>950</v>
+      </c>
+      <c r="E196">
+        <v>916</v>
+      </c>
+      <c r="F196">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6">
+      <c r="A197" t="s">
+        <v>201</v>
+      </c>
+      <c r="B197">
+        <v>-10110</v>
+      </c>
+      <c r="C197">
+        <v>4130</v>
+      </c>
+      <c r="D197">
+        <v>1129</v>
+      </c>
+      <c r="E197">
+        <v>1276</v>
+      </c>
+      <c r="F197">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6">
+      <c r="A198" t="s">
+        <v>202</v>
+      </c>
+      <c r="B198">
+        <v>-10469</v>
+      </c>
+      <c r="C198">
+        <v>3692</v>
+      </c>
+      <c r="D198">
+        <v>985</v>
+      </c>
+      <c r="E198">
+        <v>1289</v>
+      </c>
+      <c r="F198">
+        <v>1418</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6">
+      <c r="A199" t="s">
+        <v>203</v>
+      </c>
+      <c r="B199">
+        <v>-10465</v>
+      </c>
+      <c r="C199">
+        <v>3759</v>
+      </c>
+      <c r="D199">
+        <v>1236</v>
+      </c>
+      <c r="E199">
+        <v>1250</v>
+      </c>
+      <c r="F199">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6">
+      <c r="A200" t="s">
+        <v>204</v>
+      </c>
+      <c r="B200">
+        <v>-10292</v>
+      </c>
+      <c r="C200">
+        <v>4053</v>
+      </c>
+      <c r="D200">
+        <v>1548</v>
+      </c>
+      <c r="E200">
+        <v>1362</v>
+      </c>
+      <c r="F200">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6">
+      <c r="A201" t="s">
+        <v>205</v>
+      </c>
+      <c r="B201">
+        <v>-10206</v>
+      </c>
+      <c r="C201">
+        <v>4461</v>
+      </c>
+      <c r="D201">
+        <v>1402</v>
+      </c>
+      <c r="E201">
+        <v>1300</v>
+      </c>
+      <c r="F201">
+        <v>1759</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6">
+      <c r="A202" t="s">
+        <v>206</v>
+      </c>
+      <c r="B202">
+        <v>-10282</v>
+      </c>
+      <c r="C202">
+        <v>3883</v>
+      </c>
+      <c r="D202">
+        <v>1217</v>
+      </c>
+      <c r="E202">
+        <v>1285</v>
+      </c>
+      <c r="F202">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6">
+      <c r="A203" t="s">
+        <v>207</v>
+      </c>
+      <c r="B203">
+        <v>-9794</v>
+      </c>
+      <c r="C203">
+        <v>3245</v>
+      </c>
+      <c r="D203">
+        <v>1315</v>
+      </c>
+      <c r="E203">
+        <v>812</v>
+      </c>
+      <c r="F203">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6">
+      <c r="A204" t="s">
+        <v>208</v>
+      </c>
+      <c r="B204">
+        <v>-9893</v>
+      </c>
+      <c r="C204">
+        <v>3118</v>
+      </c>
+      <c r="D204">
+        <v>911</v>
+      </c>
+      <c r="E204">
+        <v>1004</v>
+      </c>
+      <c r="F204">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6">
+      <c r="A205" t="s">
+        <v>209</v>
+      </c>
+      <c r="B205">
+        <v>-10201</v>
+      </c>
+      <c r="C205">
+        <v>3594</v>
+      </c>
+      <c r="D205">
+        <v>855</v>
+      </c>
+      <c r="E205">
+        <v>1153</v>
+      </c>
+      <c r="F205">
+        <v>1586</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6">
+      <c r="A206" t="s">
+        <v>210</v>
+      </c>
+      <c r="B206">
+        <v>-10233</v>
+      </c>
+      <c r="C206">
+        <v>3822</v>
+      </c>
+      <c r="D206">
+        <v>1150</v>
+      </c>
+      <c r="E206">
+        <v>1182</v>
+      </c>
+      <c r="F206">
+        <v>1489</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6">
+      <c r="A207" t="s">
+        <v>211</v>
+      </c>
+      <c r="B207">
+        <v>-9988</v>
+      </c>
+      <c r="C207">
+        <v>4727</v>
+      </c>
+      <c r="D207">
+        <v>1420</v>
+      </c>
+      <c r="E207">
+        <v>1163</v>
+      </c>
+      <c r="F207">
+        <v>2145</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6">
+      <c r="A208" t="s">
+        <v>212</v>
+      </c>
+      <c r="B208">
+        <v>-10114</v>
+      </c>
+      <c r="C208">
+        <v>3960</v>
+      </c>
+      <c r="D208">
+        <v>1117</v>
+      </c>
+      <c r="E208">
+        <v>1240</v>
+      </c>
+      <c r="F208">
+        <v>1604</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
   <si>
     <t>Serie</t>
   </si>
@@ -653,6 +653,12 @@
   </si>
   <si>
     <t>28-10-2021</t>
+  </si>
+  <si>
+    <t>29-10-2021</t>
+  </si>
+  <si>
+    <t>02-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1010,7 +1016,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5176,6 +5182,46 @@
         <v>1604</v>
       </c>
     </row>
+    <row r="209" spans="1:6">
+      <c r="A209" t="s">
+        <v>213</v>
+      </c>
+      <c r="B209">
+        <v>-10483</v>
+      </c>
+      <c r="C209">
+        <v>2835</v>
+      </c>
+      <c r="D209">
+        <v>723</v>
+      </c>
+      <c r="E209">
+        <v>1076</v>
+      </c>
+      <c r="F209">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6">
+      <c r="A210" t="s">
+        <v>214</v>
+      </c>
+      <c r="B210">
+        <v>-10551</v>
+      </c>
+      <c r="C210">
+        <v>3395</v>
+      </c>
+      <c r="D210">
+        <v>1118</v>
+      </c>
+      <c r="E210">
+        <v>1039</v>
+      </c>
+      <c r="F210">
+        <v>1238</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
   <si>
     <t>Serie</t>
   </si>
@@ -659,6 +659,9 @@
   </si>
   <si>
     <t>02-11-2021</t>
+  </si>
+  <si>
+    <t>03-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1016,7 +1019,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F210"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5222,6 +5225,26 @@
         <v>1238</v>
       </c>
     </row>
+    <row r="211" spans="1:6">
+      <c r="A211" t="s">
+        <v>215</v>
+      </c>
+      <c r="B211">
+        <v>-10396</v>
+      </c>
+      <c r="C211">
+        <v>3807</v>
+      </c>
+      <c r="D211">
+        <v>1271</v>
+      </c>
+      <c r="E211">
+        <v>1108</v>
+      </c>
+      <c r="F211">
+        <v>1428</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
   <si>
     <t>Serie</t>
   </si>
@@ -662,6 +662,9 @@
   </si>
   <si>
     <t>03-11-2021</t>
+  </si>
+  <si>
+    <t>04-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1022,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F211"/>
+  <dimension ref="A1:F212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5245,6 +5248,26 @@
         <v>1428</v>
       </c>
     </row>
+    <row r="212" spans="1:6">
+      <c r="A212" t="s">
+        <v>216</v>
+      </c>
+      <c r="B212">
+        <v>-10475</v>
+      </c>
+      <c r="C212">
+        <v>3637</v>
+      </c>
+      <c r="D212">
+        <v>921</v>
+      </c>
+      <c r="E212">
+        <v>994</v>
+      </c>
+      <c r="F212">
+        <v>1722</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
   <si>
     <t>Serie</t>
   </si>
@@ -665,6 +665,9 @@
   </si>
   <si>
     <t>04-11-2021</t>
+  </si>
+  <si>
+    <t>05-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1025,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F212"/>
+  <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5268,6 +5271,26 @@
         <v>1722</v>
       </c>
     </row>
+    <row r="213" spans="1:6">
+      <c r="A213" t="s">
+        <v>217</v>
+      </c>
+      <c r="B213">
+        <v>-11000</v>
+      </c>
+      <c r="C213">
+        <v>3575</v>
+      </c>
+      <c r="D213">
+        <v>708</v>
+      </c>
+      <c r="E213">
+        <v>1263</v>
+      </c>
+      <c r="F213">
+        <v>1605</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
+++ b/6/2/1/Spot posiciones netas y suscripciones 2021 - Diaria.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="219">
   <si>
     <t>Serie</t>
   </si>
@@ -668,6 +668,9 @@
   </si>
   <si>
     <t>05-11-2021</t>
+  </si>
+  <si>
+    <t>08-11-2021</t>
   </si>
 </sst>
 </file>
@@ -1025,7 +1028,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F213"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -5291,6 +5294,26 @@
         <v>1605</v>
       </c>
     </row>
+    <row r="214" spans="1:6">
+      <c r="A214" t="s">
+        <v>218</v>
+      </c>
+      <c r="B214">
+        <v>-11471</v>
+      </c>
+      <c r="C214">
+        <v>4157</v>
+      </c>
+      <c r="D214">
+        <v>1043</v>
+      </c>
+      <c r="E214">
+        <v>1498</v>
+      </c>
+      <c r="F214">
+        <v>1615</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
